--- a/clcore_ig/output/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="391">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este perfil determina la ubicación especifica para un evento, objeto o Infraestructura específica. Este perfil permite vinlcular la localización especifica con una organización o espacio físico específico</t>
+    <t>Este perfil determina la ubicación especifica para un evento, objeto o Infraestructura específica. Este perfil permite vinlcular una localización con una organización o espacio físico específico</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1091,6 +1091,10 @@
   </si>
   <si>
     <t>Location.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+</t>
   </si>
   <si>
     <t>Organización a la cual la ubicación pertenece, si es el caso. Esta relación se hace en base a una referencia a una Orgaización</t>
@@ -1561,7 +1565,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6698,19 +6702,19 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6774,7 +6778,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6782,10 +6786,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6808,17 +6812,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6867,7 +6871,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6886,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6890,10 +6894,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6919,13 +6923,13 @@
         <v>324</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6975,7 +6979,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6990,7 +6994,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6998,10 +7002,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7104,10 +7108,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7212,10 +7216,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7322,10 +7326,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7351,10 +7355,10 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7384,10 +7388,10 @@
         <v>166</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7405,7 +7409,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7420,7 +7424,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7428,10 +7432,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7457,10 +7461,10 @@
         <v>288</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7511,7 +7515,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7526,7 +7530,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7534,10 +7538,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7560,13 +7564,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7617,7 +7621,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7632,7 +7636,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7640,10 +7644,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7666,13 +7670,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7723,7 +7727,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7738,7 +7742,7 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7746,10 +7750,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7775,10 +7779,10 @@
         <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7829,7 +7833,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -7852,10 +7856,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7878,17 +7882,17 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -7937,7 +7941,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
